--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/SeguroTerceraEdad.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/SeguroTerceraEdad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\quski-bre\Matrices\Matrices v2\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r06xd\Documents\Rogger\Relative\Bre Actual\QuskiBre\Matrices\Matrices v2\Produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246334EA-56EA-436F-A5E7-FCED88557341}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908BFCB-CEAA-44C6-83CD-E3DC68ABD860}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="13560" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>r06xd</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{7A67C6E3-7894-4BBD-9C3C-695572024ACB}">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{95939197-158B-444C-AD11-2936A56C2AA5}">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{DBF74DF9-AFE7-4A5C-B296-720678E0E92F}">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{297D9643-CCE3-4E7E-89E1-2253A7CEA6AA}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="1" shapeId="0" xr:uid="{DADF8B7A-D079-4A22-8761-DA0419B6F090}">
+    <comment ref="F9" authorId="1" shapeId="0" xr:uid="{30443565-9998-43D6-914A-B465A3DC6537}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="1" shapeId="0" xr:uid="{183664C9-DFE7-4C97-B6DF-31F783226C21}">
+    <comment ref="G9" authorId="1" shapeId="0" xr:uid="{40A1F722-932C-4A58-B31F-A97F3366B426}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{193D725A-2630-4933-8A10-BDABACDEDD10}">
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{E5BFB40F-6708-4770-BE4D-FF0A51BF4BB9}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="1" shapeId="0" xr:uid="{B0F129EE-8029-4ECD-8ACE-F51CECB6617A}">
+    <comment ref="I9" authorId="1" shapeId="0" xr:uid="{D1AA1437-E916-42E0-B0C9-89B5A991A6E5}">
       <text>
         <r>
           <rPr>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
